--- a/medicine/Handicap/Prothèse_articulaire/Prothèse_articulaire.xlsx
+++ b/medicine/Handicap/Prothèse_articulaire/Prothèse_articulaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Proth%C3%A8se_articulaire</t>
+          <t>Prothèse_articulaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une prothèse articulaire est un ajout ou mieux une substitution synthétique destinée à remplacer en partie ou en totalité les surfaces articulaires d'une articulation humaine ou animale. La restauration associée des moyens d'union passifs est limitée, partielle ou totale. C'est une endoprothèse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Proth%C3%A8se_articulaire</t>
+          <t>Prothèse_articulaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Vue d'ensemble</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'élaboration d'une prothèse pose le problème :
 de la manière dont elle va simuler l'action de la partie remplacée (biomécanique, ergonomie) ;
@@ -531,8 +545,43 @@
 La chirurgie de prothèse ou remplacement d'articulations commence de fait au début des années 60 quand Charnley propose les pièces cimentées métal-polyéthylène pour la hanche et à la fin des années 60 quand Gunston adapte cette conception au genou.
 Les principes proposées par Charnley comportent la fixation rigide des pièces articulaires à l'os, la restauration des deux versants articulaires et le recours à des matériaux à faible coefficient de friction et d'usure.
 Ce paradigme à ce jour résiste encore à l'épreuve du temps.
-De nos jours
-Au cours des années 1970, le nombre de prothèses articulaires posées s'envole.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Prothèse_articulaire</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Proth%C3%A8se_articulaire</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Vue d'ensemble</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>De nos jours</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au cours des années 1970, le nombre de prothèses articulaires posées s'envole.
 Un grand nombre de modèles de prothèses de hanche voit le jour, tous reposent sur le concept Charnley.
 Une exception est le recours au couple métal-métal avec le modèle McKee-Farrar, dont sont réopérés nombre de patients, mais pas tous.
 Presque toute l'attention dans la technique opératoire est, pendant au moins une génération d'opérateurs, tournée vers la qualité de l'apposition ciment-os, dont tous espèrent la meilleure résistance au cisaillement..
@@ -553,33 +602,35 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Proth%C3%A8se_articulaire</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Prothèse_articulaire</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Handicap/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Proth%C3%A8se_articulaire</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Difficultés, inconvénients</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le choix de matériaux biocompatibles diminue les risques de rejet, mais les prothèses articulaires et implants métalliques peuvent s'user et produire des débris de taille moléculaire ou nanométrique, sources d'allergies dites « métalloses »[1]. Ceci est particulièrement vrai pour les prothèses contenant du chrome du cobalt et/ou du nickel. Les corticoïdes sont presque toujours sans effets et le seul traitement consiste à retirer l'implant, la seule prévention serait d'utiliser des implants insensibles à la corrosion[2]. Un antécédent d'allergie au métaux et une sensibilisation induite par la corrosion de l'implant sont des facteurs favorisants. Le titane a longtemps été présenté comme moins allergène, mais des cas d'allergies sont néanmoins démontrés[3],[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le choix de matériaux biocompatibles diminue les risques de rejet, mais les prothèses articulaires et implants métalliques peuvent s'user et produire des débris de taille moléculaire ou nanométrique, sources d'allergies dites « métalloses ». Ceci est particulièrement vrai pour les prothèses contenant du chrome du cobalt et/ou du nickel. Les corticoïdes sont presque toujours sans effets et le seul traitement consiste à retirer l'implant, la seule prévention serait d'utiliser des implants insensibles à la corrosion. Un antécédent d'allergie au métaux et une sensibilisation induite par la corrosion de l'implant sont des facteurs favorisants. Le titane a longtemps été présenté comme moins allergène, mais des cas d'allergies sont néanmoins démontrés,.
 </t>
         </is>
       </c>
